--- a/team_specific_matrix/Samford_A.xlsx
+++ b/team_specific_matrix/Samford_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1906474820143885</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="C2">
-        <v>0.5503597122302158</v>
+        <v>0.5621301775147929</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007194244604316547</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.118705035971223</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1330935251798561</v>
+        <v>0.1331360946745562</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006329113924050633</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="C3">
-        <v>0.01265822784810127</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02531645569620253</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7974683544303798</v>
+        <v>0.7868020304568528</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1582278481012658</v>
+        <v>0.1624365482233502</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8108108108108109</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1891891891891892</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08247422680412371</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01030927835051546</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03608247422680412</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2268041237113402</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0154639175257732</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1855670103092784</v>
+        <v>0.1814345991561181</v>
       </c>
       <c r="R6">
-        <v>0.08762886597938144</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="S6">
-        <v>0.3556701030927835</v>
+        <v>0.3206751054852321</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.101123595505618</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07303370786516854</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1573033707865168</v>
+        <v>0.1583710407239819</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02247191011235955</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1797752808988764</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="R7">
-        <v>0.09550561797752809</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="S7">
-        <v>0.3707865168539326</v>
+        <v>0.3936651583710407</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1148459383753501</v>
+        <v>0.1093023255813954</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02240896358543417</v>
+        <v>0.02093023255813953</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09523809523809523</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0196078431372549</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2072829131652661</v>
+        <v>0.1930232558139535</v>
       </c>
       <c r="R8">
-        <v>0.15406162464986</v>
+        <v>0.1418604651162791</v>
       </c>
       <c r="S8">
-        <v>0.3277310924369748</v>
+        <v>0.3697674418604651</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08433734939759036</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01807228915662651</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08433734939759036</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07228915662650602</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01204819277108434</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2108433734939759</v>
+        <v>0.1930693069306931</v>
       </c>
       <c r="R9">
-        <v>0.144578313253012</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="S9">
-        <v>0.3734939759036144</v>
+        <v>0.3861386138613861</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1112984822934233</v>
+        <v>0.111340206185567</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02023608768971332</v>
+        <v>0.01993127147766323</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06913996627318718</v>
+        <v>0.07010309278350516</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118043844856661</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01349072512647555</v>
+        <v>0.01168384879725086</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2318718381112985</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="R10">
-        <v>0.1079258010118044</v>
+        <v>0.1003436426116839</v>
       </c>
       <c r="S10">
-        <v>0.3279932546374368</v>
+        <v>0.3360824742268042</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1510791366906475</v>
+        <v>0.1457142857142857</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07553956834532374</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>0.2050359712230216</v>
+        <v>0.2085714285714286</v>
       </c>
       <c r="L11">
-        <v>0.5539568345323741</v>
+        <v>0.5514285714285714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01438848920863309</v>
+        <v>0.01428571428571429</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7261146496815286</v>
+        <v>0.7397959183673469</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2101910828025478</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="K12">
-        <v>0.01910828025477707</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="L12">
-        <v>0.01273885350318471</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03184713375796178</v>
+        <v>0.02551020408163265</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5476190476190477</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3809523809523809</v>
+        <v>0.38</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01621621621621622</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1243243243243243</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="I15">
-        <v>0.08648648648648649</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J15">
-        <v>0.3891891891891892</v>
+        <v>0.3911111111111111</v>
       </c>
       <c r="K15">
-        <v>0.07567567567567568</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005405405405405406</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="N15">
-        <v>0.005405405405405406</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="O15">
-        <v>0.03783783783783784</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2594594594594595</v>
+        <v>0.2488888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0111731843575419</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1396648044692737</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="I16">
-        <v>0.03910614525139665</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="J16">
-        <v>0.4189944134078212</v>
+        <v>0.4474885844748858</v>
       </c>
       <c r="K16">
-        <v>0.1229050279329609</v>
+        <v>0.1187214611872146</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0111731843575419</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N16">
-        <v>0.0111731843575419</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="O16">
-        <v>0.06145251396648044</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1843575418994413</v>
+        <v>0.1643835616438356</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006651884700665188</v>
+        <v>0.007561436672967864</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1507760532150776</v>
+        <v>0.1436672967863894</v>
       </c>
       <c r="I17">
-        <v>0.106430155210643</v>
+        <v>0.1020793950850662</v>
       </c>
       <c r="J17">
-        <v>0.4478935698447893</v>
+        <v>0.4555765595463138</v>
       </c>
       <c r="K17">
-        <v>0.082039911308204</v>
+        <v>0.08317580340264651</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0221729490022173</v>
+        <v>0.01890359168241966</v>
       </c>
       <c r="N17">
-        <v>0.002217294900221729</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="O17">
-        <v>0.06873614190687362</v>
+        <v>0.06994328922495274</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1130820399113082</v>
+        <v>0.1172022684310019</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01239669421487603</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1487603305785124</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.07024793388429752</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="J18">
-        <v>0.4338842975206612</v>
+        <v>0.4392857142857143</v>
       </c>
       <c r="K18">
-        <v>0.08677685950413223</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02892561983471074</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N18">
-        <v>0.008264462809917356</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="O18">
-        <v>0.1115702479338843</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09917355371900827</v>
+        <v>0.1107142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01615969581749049</v>
+        <v>0.0182370820668693</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1967680608365019</v>
+        <v>0.1899696048632219</v>
       </c>
       <c r="I19">
-        <v>0.0741444866920152</v>
+        <v>0.07598784194528875</v>
       </c>
       <c r="J19">
-        <v>0.3954372623574144</v>
+        <v>0.3844984802431611</v>
       </c>
       <c r="K19">
-        <v>0.1159695817490494</v>
+        <v>0.1231003039513678</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02281368821292776</v>
+        <v>0.02279635258358663</v>
       </c>
       <c r="N19">
-        <v>0.001901140684410646</v>
+        <v>0.002279635258358662</v>
       </c>
       <c r="O19">
-        <v>0.05703422053231939</v>
+        <v>0.06155015197568389</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1197718631178707</v>
+        <v>0.121580547112462</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Samford_A.xlsx
+++ b/team_specific_matrix/Samford_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1834319526627219</v>
+        <v>0.1750663129973475</v>
       </c>
       <c r="C2">
-        <v>0.5621301775147929</v>
+        <v>0.5570291777188329</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005917159763313609</v>
+        <v>0.01856763925729443</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1153846153846154</v>
+        <v>0.1246684350132626</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1331360946745562</v>
+        <v>0.1246684350132626</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01015228426395939</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C3">
-        <v>0.01522842639593909</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02538071065989848</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7868020304568528</v>
+        <v>0.777292576419214</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1624365482233502</v>
+        <v>0.1572052401746725</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.78</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08860759493670886</v>
+        <v>0.08494208494208494</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008438818565400843</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04641350210970464</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2405063291139241</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02531645569620253</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1814345991561181</v>
+        <v>0.1776061776061776</v>
       </c>
       <c r="R6">
-        <v>0.08860759493670886</v>
+        <v>0.08494208494208494</v>
       </c>
       <c r="S6">
-        <v>0.3206751054852321</v>
+        <v>0.3204633204633205</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09502262443438914</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009049773755656109</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1583710407239819</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01809954751131222</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.16289592760181</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="R7">
-        <v>0.1040723981900453</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="S7">
-        <v>0.3936651583710407</v>
+        <v>0.3803418803418803</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1093023255813954</v>
+        <v>0.1058315334773218</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02093023255813953</v>
+        <v>0.02159827213822894</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05813953488372093</v>
+        <v>0.06263498920086392</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08837209302325581</v>
+        <v>0.09287257019438445</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0186046511627907</v>
+        <v>0.01943844492440605</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1930232558139535</v>
+        <v>0.1900647948164147</v>
       </c>
       <c r="R8">
-        <v>0.1418604651162791</v>
+        <v>0.1360691144708423</v>
       </c>
       <c r="S8">
-        <v>0.3697674418604651</v>
+        <v>0.3714902807775378</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09405940594059406</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01485148514851485</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07425742574257425</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0891089108910891</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009900990099009901</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1930693069306931</v>
+        <v>0.1875</v>
       </c>
       <c r="R9">
-        <v>0.1386138613861386</v>
+        <v>0.125</v>
       </c>
       <c r="S9">
-        <v>0.3861386138613861</v>
+        <v>0.4151785714285715</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.111340206185567</v>
+        <v>0.1109725685785536</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01993127147766323</v>
+        <v>0.01932668329177057</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001246882793017456</v>
       </c>
       <c r="F10">
-        <v>0.07010309278350516</v>
+        <v>0.06795511221945137</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1237113402061856</v>
+        <v>0.1309226932668329</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01168384879725086</v>
+        <v>0.01433915211970075</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2268041237113402</v>
+        <v>0.2219451371571072</v>
       </c>
       <c r="R10">
-        <v>0.1003436426116839</v>
+        <v>0.1034912718204489</v>
       </c>
       <c r="S10">
-        <v>0.3360824742268042</v>
+        <v>0.3298004987531172</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1457142857142857</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="K11">
-        <v>0.2085714285714286</v>
+        <v>0.208994708994709</v>
       </c>
       <c r="L11">
-        <v>0.5514285714285714</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01428571428571429</v>
+        <v>0.02116402116402116</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7397959183673469</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2040816326530612</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="K12">
-        <v>0.01530612244897959</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="L12">
-        <v>0.01530612244897959</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02551020408163265</v>
+        <v>0.02358490566037736</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5600000000000001</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.38</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01333333333333333</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1466666666666667</v>
+        <v>0.1422924901185771</v>
       </c>
       <c r="I15">
-        <v>0.08888888888888889</v>
+        <v>0.07905138339920949</v>
       </c>
       <c r="J15">
-        <v>0.3911111111111111</v>
+        <v>0.3952569169960474</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004444444444444444</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="N15">
-        <v>0.004444444444444444</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="O15">
-        <v>0.03555555555555556</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2488888888888889</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0091324200913242</v>
+        <v>0.012</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1415525114155251</v>
+        <v>0.136</v>
       </c>
       <c r="I16">
-        <v>0.0410958904109589</v>
+        <v>0.052</v>
       </c>
       <c r="J16">
-        <v>0.4474885844748858</v>
+        <v>0.42</v>
       </c>
       <c r="K16">
-        <v>0.1187214611872146</v>
+        <v>0.136</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0136986301369863</v>
+        <v>0.02</v>
       </c>
       <c r="N16">
-        <v>0.0091324200913242</v>
+        <v>0.008</v>
       </c>
       <c r="O16">
-        <v>0.0547945205479452</v>
+        <v>0.048</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1643835616438356</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007561436672967864</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1436672967863894</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="I17">
-        <v>0.1020793950850662</v>
+        <v>0.1013986013986014</v>
       </c>
       <c r="J17">
-        <v>0.4555765595463138</v>
+        <v>0.4527972027972028</v>
       </c>
       <c r="K17">
-        <v>0.08317580340264651</v>
+        <v>0.08566433566433566</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01890359168241966</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="N17">
-        <v>0.001890359168241966</v>
+        <v>0.001748251748251748</v>
       </c>
       <c r="O17">
-        <v>0.06994328922495274</v>
+        <v>0.07342657342657342</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1172022684310019</v>
+        <v>0.1206293706293706</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01428571428571429</v>
+        <v>0.0126984126984127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1396825396825397</v>
       </c>
       <c r="I18">
-        <v>0.06785714285714285</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="J18">
-        <v>0.4392857142857143</v>
+        <v>0.4507936507936508</v>
       </c>
       <c r="K18">
-        <v>0.08928571428571429</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02857142857142857</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="N18">
-        <v>0.007142857142857143</v>
+        <v>0.006349206349206349</v>
       </c>
       <c r="O18">
-        <v>0.1</v>
+        <v>0.1015873015873016</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1107142857142857</v>
+        <v>0.1079365079365079</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0182370820668693</v>
+        <v>0.01819454163750875</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1899696048632219</v>
+        <v>0.1889433170048985</v>
       </c>
       <c r="I19">
-        <v>0.07598784194528875</v>
+        <v>0.07907627711686493</v>
       </c>
       <c r="J19">
-        <v>0.3844984802431611</v>
+        <v>0.384184744576627</v>
       </c>
       <c r="K19">
-        <v>0.1231003039513678</v>
+        <v>0.1210636808957313</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02279635258358663</v>
+        <v>0.02169349195241427</v>
       </c>
       <c r="N19">
-        <v>0.002279635258358662</v>
+        <v>0.002099370188943317</v>
       </c>
       <c r="O19">
-        <v>0.06155015197568389</v>
+        <v>0.06368089573128062</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.121580547112462</v>
+        <v>0.1210636808957313</v>
       </c>
     </row>
   </sheetData>
